--- a/01-codebooks/codebook.xlsx
+++ b/01-codebooks/codebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edb5662/Box/network/other projects/idio prediction/01-codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47619118-4D30-2746-96FC-F4F2ED7F2E6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3492F86C-D895-6B4D-BE1D-08299C0E8905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2760" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{7B10C8D4-5213-624E-A818-9F0E09EE4356}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="1092">
   <si>
     <t>Housekeeping Items</t>
   </si>
@@ -3344,6 +3344,9 @@
   </si>
   <si>
     <t>12 hr cos Cycle</t>
+  </si>
+  <si>
+    <t>Sociality</t>
   </si>
 </sst>
 </file>
@@ -3507,9 +3510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3518,6 +3518,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3835,8 +3838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA966EEE-7027-654C-961F-5E8E8EC83C7D}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3848,16 +3851,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -3873,16 +3876,16 @@
       <c r="G2" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -5561,16 +5564,16 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
@@ -5728,7 +5731,7 @@
         <v>279</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>1091</v>
       </c>
       <c r="D80" t="s">
         <v>302</v>
@@ -5741,16 +5744,16 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
@@ -6189,25 +6192,25 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="B107" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="C107" s="24"/>
+      <c r="C107" s="23"/>
       <c r="D107" s="2" t="s">
         <v>277</v>
       </c>
@@ -6224,10 +6227,10 @@
       <c r="A108" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="C108" s="22"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="10" t="s">
         <v>373</v>
       </c>
@@ -6244,10 +6247,10 @@
       <c r="A109" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="C109" s="22"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="10" t="s">
         <v>374</v>
       </c>
@@ -6264,10 +6267,10 @@
       <c r="A110" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="C110" s="22"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="10" t="s">
         <v>376</v>
       </c>
@@ -6284,10 +6287,10 @@
       <c r="A111" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="C111" s="22"/>
+      <c r="C111" s="25"/>
       <c r="D111" s="10" t="s">
         <v>377</v>
       </c>
@@ -6304,10 +6307,10 @@
       <c r="A112" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="C112" s="22"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="10" t="s">
         <v>378</v>
       </c>
@@ -6324,10 +6327,10 @@
       <c r="A113" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B113" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="C113" s="23"/>
+      <c r="C113" s="22"/>
       <c r="D113" s="5" t="s">
         <v>379</v>
       </c>
@@ -6344,10 +6347,10 @@
       <c r="A114" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="C114" s="22"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="10" t="s">
         <v>380</v>
       </c>
@@ -6364,10 +6367,10 @@
       <c r="A115" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B115" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="C115" s="23"/>
+      <c r="C115" s="22"/>
       <c r="D115" s="5" t="s">
         <v>381</v>
       </c>
@@ -6384,10 +6387,10 @@
       <c r="A116" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="C116" s="22"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="10" t="s">
         <v>383</v>
       </c>
@@ -6404,10 +6407,10 @@
       <c r="A117" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B117" s="23" t="s">
+      <c r="B117" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="C117" s="23"/>
+      <c r="C117" s="22"/>
       <c r="D117" s="5" t="s">
         <v>385</v>
       </c>
@@ -6421,20 +6424,20 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24"/>
-      <c r="K119" s="24"/>
-      <c r="L119" s="24"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="23"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
     </row>
     <row r="120" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
@@ -15438,6 +15441,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="A119:L119"/>
     <mergeCell ref="B113:C113"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A5:H5"/>
@@ -15450,11 +15458,6 @@
     <mergeCell ref="B110:C110"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="A119:L119"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -15466,8 +15469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0238EEEB-F3FE-EC48-ABD6-DBBF363E8CA9}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90:XFD99"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18048,10 +18051,10 @@
         <v>982</v>
       </c>
       <c r="K69" t="s">
-        <v>15</v>
+        <v>1091</v>
       </c>
       <c r="L69" t="s">
-        <v>15</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -19074,8 +19077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF80ADD6-2CB0-4742-9D87-4B909F066132}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19920,16 +19923,16 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>1091</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>1091</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>1091</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
